--- a/гостиницы.xlsx
+++ b/гостиницы.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,73 +458,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Сочи отель</t>
+          <t>Сочи Галерея Парк</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Курортный пр., 50, Сочи, Краснодарский край, Россия, 354000</t>
+          <t>Навагинская ул., 14, Сочи, Краснодарский край, Россия, 354000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9 774 ₸</t>
+          <t>9 095 ₸</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyJ0Noa0k4N3FJdVB2U3NfZ3RHZzB2Wnk4eE1XaGlOVGQzTUdoeEVBRTgGQgkRJGoOxJ0rbtZCCRHz530_jA3uWUIJEd3ZlTQWJB3SWmAyXqoBWxABKhYiEtCz0L7RgdGC0LjQvdC40YbRiygNMh4QASIaLm8H2nx0ier_J_4i5APUXAC3Z_xvTigyvoIyHxACIhvQs9C-0YHRgtC40L3QuNGG0Ysg0YHQvtGH0Lg&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahcKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQUg</t>
+          <t>https://sgpark.ru/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Сочи Галерея Парк</t>
+          <t>Сочи отель</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Навагинская ул., 14, Сочи, Краснодарский край, Россия, 354000</t>
+          <t>Курортный пр., 50, Сочи, Краснодарский край, Россия, 354000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9 208 ₸</t>
+          <t>9 007 ₸</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyJ0Noa0kxTERVMWNLQmh1SkZHZzB2Wnk4eE1XczFaMnhyY1RONUVBRTgGQgkRJGoOxJ0rbtZCCRHz530_jA3uWUIJEd3ZlTQWJB3SWmAyXqoBWxABKhYiEtCz0L7RgdGC0LjQvdC40YbRiygNMh4QASIaLm8H2nx0ier_J_4i5APUXAC3Z_xvTigyvoIyHxACIhvQs9C-0YHRgtC40L3QuNGG0Ysg0YHQvtGH0Lg&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQwwE</t>
+          <t>https://sochihotel.sochi-magnolia.ru/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Отель Чайковский</t>
+          <t>Альфа Апартаменты Сочи</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ул. Чайковского, 7/2, Сочи, Краснодарский край, Россия, 354065</t>
+          <t>ул. Черноморская, 6, Сочи, Краснодарский край, Россия, 354002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11 204 ₸</t>
+          <t>10 108 ₸</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyJ0Noa0lrLTd4ajlqdHJiWjBHZzB2Wnk4eE1XaG1PSE4yTVRoa0VBRTgGQgkRJGoOxJ0rbtZCCRHz530_jA3uWUIJEd3ZlTQWJB3SWmAyXqoBWxABKhYiEtCz0L7RgdGC0LjQvdC40YbRiygNMh4QASIaLm8H2nx0ier_J_4i5APUXAC3Z_xvTigyvoIyHxACIhvQs9C-0YHRgtC40L3QuNGG0Ysg0YHQvtGH0Lg&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQtwI</t>
+          <t>https://www.alphapartments.ru/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Serenity Premium</t>
+          <t>Wellness СПА-отель Грейс Горизонт</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -534,34 +534,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11 204 ₸</t>
+          <t>24 688 ₸</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyJ0Noa0lsTkhNdE1IZzVjTWhHZzB2Wnk4eE1XNW5abkIyTUd0eEVBRTgGQgkRJGoOxJ0rbtZCCRHz530_jA3uWUIJEd3ZlTQWJB3SWmAyXqoBWxABKhYiEtCz0L7RgdGC0LjQvdC40YbRiygNMh4QASIaLm8H2nx0ier_J_4i5APUXAC3Z_xvTigyvoIyHxACIhvQs9C-0YHRgtC40L3QuNGG0Ysg0YHQvtGH0Lg&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQqgM</t>
+          <t>https://grace-hotels.ru/about-gorizont?utm_source=maps&amp;utm_medium=cpc&amp;utm_campaign=google</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wellness СПА-отель Грейс Горизонт</t>
+          <t>Ranovsky Park Wellness Hotel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Морской пер., 1 / 1Б, Сочи, Краснодарский край, Россия, 354000</t>
+          <t>Депутатская ул., 14, Сочи, Краснодарский край, Россия, 354002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11 204 ₸</t>
+          <t>13 805 ₸</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyKENob0loTW1kcWEzZzM2S3ZBUm9OTDJjdk1URnhiamRqWm5OeU5oQUI4BkIJESRqDsSdK27WQgkR8-d9P4wN7llCCRHd2ZU0FiQd0lpgMl6qAVsQASoWIhLQs9C-0YHRgtC40L3QuNGG0YsoDTIeEAEiGi5vB9p8dInq_yf-IuQD1FwAt2f8b04oMr6CMh8QAiIb0LPQvtGB0YLQuNC90LjRhtGLINGB0L7Rh9C4&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQnQQ</t>
+          <t>http://ranovsky-park.ru/</t>
         </is>
       </c>
     </row>
@@ -578,210 +578,184 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11 204 ₸</t>
+          <t>11 289 ₸</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyJ0Noa0kwZV9wdHI2UDc0QkFHZzB2Wnk4eE1XMWlaM0JxTlhacUVBRTgGQgkRJGoOxJ0rbtZCCRHz530_jA3uWUIJEd3ZlTQWJB3SWmAyXqoBWxABKhYiEtCz0L7RgdGC0LjQvdC40YbRiygNMh4QASIaLm8H2nx0ier_J_4i5APUXAC3Z_xvTigyvoIyHxACIhvQs9C-0YHRgtC40L3QuNGG0Ysg0YHQvtGH0Lg&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQjgU</t>
+          <t>http://rivierapark.apartments/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sea Galaxy Hotel Congress &amp; SPA</t>
+          <t>Serenity Premium</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ул. Черноморская, 4, Сочи, Краснодарский край, Россия, 354002</t>
+          <t>Морской пер., 1 / 1Б, Сочи, Краснодарский край, Россия, 354000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>34 062 ₸</t>
+          <t>16 069 ₸</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyJkNoZ0k0dXZRNnRlc2lLSkRHZ3d2Wnk4eGNIcHlNV2N5WjNrUUFROAZCCREkag7EnStu1kIJEfPnfT-MDe5ZQgkR3dmVNBYkHdJaYDJeqgFbEAEqFiIS0LPQvtGB0YLQuNC90LjRhtGLKA0yHhABIhoubwfafHSJ6v8n_iLkA9RcALdn_G9OKDK-gjIfEAIiG9Cz0L7RgdGC0LjQvdC40YbRiyDRgdC-0YfQuA&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQjAY</t>
+          <t>https://serenity-premium.ru/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Альфа Апартаменты Сочи</t>
+          <t>Место Под Солнцем</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ул. Черноморская, 6, Сочи, Краснодарский край, Россия, 354002</t>
+          <t>Депутатская ул., 9, Сочи, Краснодарский край, Россия, 354002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13 118 ₸</t>
+          <t>10 108 ₸</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyKENob0lzdDZvbThMUzF2SzNBUm9OTDJjdk1URm9abUo2Y25BMll4QUI4BkIJESRqDsSdK27WQgkR8-d9P4wN7llCCRHd2ZU0FiQd0lpgMl6qAVsQASoWIhLQs9C-0YHRgtC40L3QuNGG0YsoDTIeEAEiGi5vB9p8dInq_yf-IuQD1FwAt2f8b04oMr6CMh8QAiIb0LPQvtGB0YLQuNC90LjRhtGLINGB0L7Rh9C4&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQ8AY</t>
+          <t>https://sunsochi-apartments.ru/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>отель "Соната"</t>
+          <t>Эль Отель</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ул. Полтавская, 60, Сочи, Краснодарский край, Россия, 354053</t>
+          <t>ул. Пирогова, 40 корпус 2, Сочи, Краснодарский край, Россия, 354008</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17 491 ₸</t>
+          <t>4 775 ₸</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyKENob0lnSW1nb3RuYjdlZmZBUm9OTDJjdk1URmpiamQ0T0daeU9SQUI4BkIJESRqDsSdK27WQgkR8-d9P4wN7llCCRHd2ZU0FiQd0lpgMl6qAVsQASoWIhLQs9C-0YHRgtC40L3QuNGG0YsoDTIeEAEiGi5vB9p8dInq_yf-IuQD1FwAt2f8b04oMr6CMh8QAiIb0LPQvtGB0YLQuNC90LjRhtGLINGB0L7Rh9C4&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQ4wc</t>
+          <t>http://www.elle-hotel.ru/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Отель Эстет</t>
+          <t>Kailas Spa by Stellar Hotels</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Депутатская ул., 9/3, Сочи, Краснодарский край, Россия, 354002</t>
+          <t>Морской пер., 9/1, Сочи, Краснодарский край, Россия, 354000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12 351 ₸</t>
+          <t>11 887 ₸</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyKENob0lyOXVVZ05mNXJPcnhBUm9OTDJjdk1URmpNSFp0WTNOeWRCQUI4BkIJESRqDsSdK27WQgkR8-d9P4wN7llCCRHd2ZU0FiQd0lpgMl6qAVsQASoWIhLQs9C-0YHRgtC40L3QuNGG0YsoDTIeEAEiGi5vB9p8dInq_yf-IuQD1FwAt2f8b04oMr6CMh8QAiIb0LPQvtGB0YLQuNC90LjRhtGLINGB0L7Rh9C4&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQ5gg</t>
+          <t>https://kailas-stellarhotels.ru/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>City Park Hotel Sochi</t>
+          <t>Vinograd-hotel</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Морской пер., 2, Сочи, Краснодарский край, Россия, 354000</t>
+          <t>ул. Виноградная, 62, Сочи, Краснодарский край, Россия, 354008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>47 156 ₸</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyJkNoZ0lzNVctLUktOGpfUE5BUm9MTDJjdk1USXlYelJ4WkdNUUFROAZCCREkag7EnStu1kIJEfPnfT-MDe5ZQgkR3dmVNBYkHdJaYDJeqgFbEAEqFiIS0LPQvtGB0YLQuNC90LjRhtGLKA0yHhABIhoubwfafHSJ6v8n_iLkA9RcALdn_G9OKDK-gjIfEAIiG9Cz0L7RgdGC0LjQvdC40YbRiyDRgdC-0YfQuA&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQ2wk</t>
-        </is>
-      </c>
+          <t>4 957 ₸</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dolphin Resort by Stellar Hotels, Sochi</t>
+          <t>Отель Golden Holiday</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ул. Черноморская, 19, Сочи, Краснодарский край, Россия, 354002</t>
+          <t>Курортный пр., 75 к1, Сочи, Краснодарский край, Россия, 354002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21 309 ₸</t>
+          <t>10 589 ₸</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyJkNoZ0ltT0xQbjZQcHdNRmVHZ3d2Wnk4eGNIbHhjMmR0YUhJUUFROAZCCREkag7EnStu1kIJEfPnfT-MDe5ZQgkR3dmVNBYkHdJaYDJeqgFbEAEqFiIS0LPQvtGB0YLQuNC90LjRhtGLKA0yHhABIhoubwfafHSJ6v8n_iLkA9RcALdn_G9OKDK-gjIfEAIiG9Cz0L7RgdGC0LjQvdC40YbRiyDRgdC-0YfQuA&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQzgo</t>
+          <t>http://goldenholiday.ru/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GREEN HOUSE Detox &amp; SPA Hotel</t>
+          <t>Sanremo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Дивноморская ул., 26, Сочи, Краснодарский край, Россия, 354054</t>
+          <t>ул. Черноморская, 13Г, Сочи, Краснодарский край, Россия, 354000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18 005 ₸</t>
+          <t>22 029 ₸</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyJ0Noa0l6N3VmeDllRW9MN1RBUm9NTDJjdk1USjJkRzF1TURjMUVBRTgGQgkRJGoOxJ0rbtZCCRHz530_jA3uWUIJEd3ZlTQWJB3SWmAyXqoBWxABKhYiEtCz0L7RgdGC0LjQvdC40YbRiygNMh4QASIaLm8H2nx0ier_J_4i5APUXAC3Z_xvTigyvoIyHxACIhvQs9C-0YHRgtC40L3QuNGG0Ysg0YHQvtGH0Lg&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQ0Qs</t>
+          <t>http://sanremo-hotel.ru/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sanremo</t>
+          <t>VeryHotel</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ул. Черноморская, 13Г, Сочи, Краснодарский край, Россия, 354000</t>
+          <t>Первомайская ул., 19, Сочи, Краснодарский край, Россия, 354000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29 515 ₸</t>
+          <t>7 511 ₸</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyJ0Noa0lrY0MxLVpHUDkteTVBUm9NTDJjdk1YQndNbmcyTXpSaUVBRTgGQgkRJGoOxJ0rbtZCCRHz530_jA3uWUIJEd3ZlTQWJB3SWmAyXqoBWxABKhYiEtCz0L7RgdGC0LjQvdC40YbRiygNMh4QASIaLm8H2nx0ier_J_4i5APUXAC3Z_xvTigyvoIyHxACIhvQs9C-0YHRgtC40L3QuNGG0Ysg0YHQvtGH0Lg&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQxAw</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Swissôtel Resort Сочи Камелия</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Курортный пр., 89, Сочи, Краснодарский край, Россия, 354002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>59 159 ₸</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/travel/search?q=%D0%93%D0%BE%D1%81%D1%82%D0%B8%D0%BD%D0%B8%D1%86%D1%8B%20%D0%A1%D0%BE%D1%87%D0%B8&amp;g2lb=4965990%2C4969803%2C72277293%2C72302247%2C72317059%2C72406588%2C72414906%2C72421566%2C72471280%2C72472051%2C72481459%2C72485658%2C72560029%2C72573224%2C72614662%2C72616120%2C72619927%2C72647020%2C72648289%2C72658035%2C72686036%2C72760082%2C72803964%2C72808078%2C72832976%2C72852291&amp;hl=ru-KZ&amp;gl=kz&amp;cs=1&amp;ssta=1&amp;ts=CAESCgoCCAMKAggDEAAaUQozEjEyJTB4NDBmNWQ0ZTExMTgzNDQyMzoweDZlNmY2MTg2NmE1ZDVkZjg6CNCh0L7Rh9C4EhoSFAoHCOkPEAEYDhIHCOkPEAEYFBgGMgIIAioHCgU6A0taVA&amp;qs=CAEyJ0Noa0ltZlhodXNLMmpvT3FBUm9NTDJjdk1YQjBlak5zZUdneUVBRTgGQgkRJGoOxJ0rbtZCCRHz530_jA3uWUIJEd3ZlTQWJB3SWmAyXqoBWxABKhYiEtCz0L7RgdGC0LjQvdC40YbRiygNMh4QASIaLm8H2nx0ier_J_4i5APUXAC3Z_xvTigyvoIyHxACIhvQs9C-0YHRgtC40L3QuNGG0Ysg0YHQvtGH0Lg&amp;ap=KigKEgkDTVvfX8FFQBHRL0pwjdRDQBISCRpKW-uN1UVAEdEvSjAy6ENAMABoAQ&amp;ictx=111&amp;ved=0CAAQ5JsGahgKEwiIs6TJ5vWKAxUAAAAAHQAAAAAQyQ0</t>
+          <t>https://veryhotel.ru/</t>
         </is>
       </c>
     </row>
